--- a/gd/数值规划/宠物养成-宠物升阶.xlsx
+++ b/gd/数值规划/宠物养成-宠物升阶.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="23910" windowHeight="11535" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="文档记录" sheetId="1" r:id="rId1"/>
@@ -723,23 +723,12 @@
   </cellStyleXfs>
   <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -777,12 +766,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -810,6 +810,7 @@
       <sheetName val="镶嵌宝石"/>
       <sheetName val="属性能力生成表"/>
       <sheetName val="宠物升阶生成表"/>
+      <sheetName val="装备拆分生成表"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
@@ -817,97 +818,97 @@
       <sheetData sheetId="2">
         <row r="31">
           <cell r="I31">
-            <v>88</v>
+            <v>18</v>
           </cell>
           <cell r="J31">
-            <v>12</v>
+            <v>2</v>
           </cell>
           <cell r="K31">
-            <v>12</v>
+            <v>2</v>
           </cell>
           <cell r="L31">
-            <v>19</v>
+            <v>4</v>
           </cell>
         </row>
         <row r="32">
           <cell r="I32">
-            <v>96</v>
+            <v>38</v>
           </cell>
           <cell r="J32">
-            <v>13</v>
+            <v>4</v>
           </cell>
           <cell r="K32">
-            <v>13</v>
+            <v>4</v>
           </cell>
           <cell r="L32">
-            <v>21</v>
+            <v>8</v>
           </cell>
         </row>
         <row r="33">
           <cell r="I33">
-            <v>114</v>
+            <v>61</v>
           </cell>
           <cell r="J33">
-            <v>16</v>
+            <v>7</v>
           </cell>
           <cell r="K33">
-            <v>16</v>
+            <v>7</v>
           </cell>
           <cell r="L33">
-            <v>25</v>
+            <v>13</v>
           </cell>
         </row>
         <row r="34">
           <cell r="I34">
-            <v>130</v>
+            <v>88</v>
           </cell>
           <cell r="J34">
-            <v>18</v>
+            <v>10</v>
           </cell>
           <cell r="K34">
-            <v>18</v>
+            <v>10</v>
           </cell>
           <cell r="L34">
-            <v>28</v>
+            <v>19</v>
           </cell>
         </row>
         <row r="35">
           <cell r="I35">
-            <v>146</v>
+            <v>118</v>
           </cell>
           <cell r="J35">
-            <v>20</v>
+            <v>13</v>
           </cell>
           <cell r="K35">
-            <v>20</v>
+            <v>13</v>
           </cell>
           <cell r="L35">
-            <v>31</v>
+            <v>26</v>
           </cell>
         </row>
         <row r="36">
           <cell r="I36">
-            <v>175</v>
+            <v>154</v>
           </cell>
           <cell r="J36">
-            <v>24</v>
+            <v>17</v>
           </cell>
           <cell r="K36">
-            <v>24</v>
+            <v>17</v>
           </cell>
           <cell r="L36">
-            <v>38</v>
+            <v>34</v>
           </cell>
         </row>
         <row r="37">
           <cell r="I37">
-            <v>198</v>
+            <v>195</v>
           </cell>
           <cell r="J37">
-            <v>27</v>
+            <v>22</v>
           </cell>
           <cell r="K37">
-            <v>27</v>
+            <v>22</v>
           </cell>
           <cell r="L37">
             <v>43</v>
@@ -915,30 +916,30 @@
         </row>
         <row r="38">
           <cell r="I38">
-            <v>222</v>
+            <v>240</v>
           </cell>
           <cell r="J38">
-            <v>30</v>
+            <v>27</v>
           </cell>
           <cell r="K38">
-            <v>30</v>
+            <v>27</v>
           </cell>
           <cell r="L38">
-            <v>48</v>
+            <v>53</v>
           </cell>
         </row>
         <row r="39">
           <cell r="I39">
-            <v>254</v>
+            <v>292</v>
           </cell>
           <cell r="J39">
-            <v>35</v>
+            <v>33</v>
           </cell>
           <cell r="K39">
-            <v>35</v>
+            <v>33</v>
           </cell>
           <cell r="L39">
-            <v>55</v>
+            <v>65</v>
           </cell>
         </row>
       </sheetData>
@@ -946,6 +947,7 @@
       <sheetData sheetId="4"/>
       <sheetData sheetId="5"/>
       <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1240,7 +1242,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:K21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E13" sqref="E13:I13"/>
     </sheetView>
   </sheetViews>
@@ -1248,269 +1250,269 @@
   <sheetData>
     <row r="3" spans="3:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="4" spans="3:11" x14ac:dyDescent="0.15">
-      <c r="C4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="2" t="s">
+      <c r="C4" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="19"/>
+      <c r="E4" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="K4" s="6"/>
+      <c r="K4" s="23"/>
     </row>
     <row r="5" spans="3:11" x14ac:dyDescent="0.15">
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="8"/>
-      <c r="E5" s="9" t="s">
+      <c r="D5" s="7"/>
+      <c r="E5" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="12"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="11"/>
     </row>
     <row r="6" spans="3:11" x14ac:dyDescent="0.15">
-      <c r="C6" s="7"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="12"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="11"/>
     </row>
     <row r="7" spans="3:11" x14ac:dyDescent="0.15">
-      <c r="C7" s="7"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="12"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="11"/>
     </row>
     <row r="8" spans="3:11" x14ac:dyDescent="0.15">
-      <c r="C8" s="7"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="12"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="11"/>
     </row>
     <row r="9" spans="3:11" x14ac:dyDescent="0.15">
-      <c r="C9" s="7"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="12"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="11"/>
     </row>
     <row r="10" spans="3:11" x14ac:dyDescent="0.15">
-      <c r="C10" s="7"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="12"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="11"/>
     </row>
     <row r="11" spans="3:11" x14ac:dyDescent="0.15">
-      <c r="C11" s="7"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="12"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="11"/>
     </row>
     <row r="12" spans="3:11" x14ac:dyDescent="0.15">
-      <c r="C12" s="7"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="12"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="11"/>
     </row>
     <row r="13" spans="3:11" x14ac:dyDescent="0.15">
-      <c r="C13" s="7"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="12"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="11"/>
     </row>
     <row r="14" spans="3:11" x14ac:dyDescent="0.15">
-      <c r="C14" s="7"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="11"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="12"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="11"/>
     </row>
     <row r="15" spans="3:11" x14ac:dyDescent="0.15">
-      <c r="C15" s="7"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="11"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="12"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="11"/>
     </row>
     <row r="16" spans="3:11" x14ac:dyDescent="0.15">
-      <c r="C16" s="7"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="11"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="12"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="11"/>
     </row>
     <row r="17" spans="3:11" x14ac:dyDescent="0.15">
-      <c r="C17" s="7"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="11"/>
-      <c r="J17" s="8"/>
-      <c r="K17" s="12"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="11"/>
     </row>
     <row r="18" spans="3:11" x14ac:dyDescent="0.15">
-      <c r="C18" s="7"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="8"/>
-      <c r="K18" s="12"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="11"/>
     </row>
     <row r="19" spans="3:11" x14ac:dyDescent="0.15">
-      <c r="C19" s="7"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="11"/>
-      <c r="J19" s="8"/>
-      <c r="K19" s="12"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="11"/>
     </row>
     <row r="20" spans="3:11" x14ac:dyDescent="0.15">
-      <c r="C20" s="7"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="11"/>
-      <c r="J20" s="8"/>
-      <c r="K20" s="12"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="11"/>
     </row>
     <row r="21" spans="3:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="C21" s="13"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="16"/>
-      <c r="G21" s="16"/>
-      <c r="H21" s="16"/>
-      <c r="I21" s="17"/>
-      <c r="J21" s="14"/>
-      <c r="K21" s="18"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="15"/>
+      <c r="I21" s="16"/>
+      <c r="J21" s="13"/>
+      <c r="K21" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="54">
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:I4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:I5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:I6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:I9"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:I10"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:I11"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:I12"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:I13"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:I14"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:I15"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:I16"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:I17"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:I18"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:I19"/>
+    <mergeCell ref="J19:K19"/>
     <mergeCell ref="C20:D20"/>
     <mergeCell ref="E20:I20"/>
     <mergeCell ref="J20:K20"/>
     <mergeCell ref="C21:D21"/>
     <mergeCell ref="E21:I21"/>
     <mergeCell ref="J21:K21"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:I18"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:I19"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:I16"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:I17"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E14:I14"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E15:I15"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:I12"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:I13"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:I10"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:I11"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:I8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:I9"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:I6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:I4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:I5"/>
-    <mergeCell ref="J5:K5"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1521,7 +1523,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:S30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
@@ -1588,18 +1590,18 @@
       <c r="O5">
         <v>3</v>
       </c>
-      <c r="P5" s="21">
+      <c r="P5" s="3">
         <v>0.8</v>
       </c>
       <c r="Q5">
         <v>1</v>
       </c>
       <c r="R5">
-        <f>O5/3</f>
+        <f t="shared" ref="R5:R13" si="0">O5/3</f>
         <v>1</v>
       </c>
       <c r="S5">
-        <f>$Q5*$R5+O5*(P5+1)/2</f>
+        <f t="shared" ref="S5:S13" si="1">$Q5*$R5+O5*(P5+1)/2</f>
         <v>3.7</v>
       </c>
     </row>
@@ -1610,18 +1612,18 @@
       <c r="O6">
         <v>4</v>
       </c>
-      <c r="P6" s="21">
+      <c r="P6" s="3">
         <v>0.5</v>
       </c>
       <c r="Q6">
         <v>1</v>
       </c>
       <c r="R6">
-        <f>O6/3</f>
+        <f t="shared" si="0"/>
         <v>1.3333333333333333</v>
       </c>
       <c r="S6">
-        <f>$Q6*$R6+O6*(P6+1)/2</f>
+        <f t="shared" si="1"/>
         <v>4.333333333333333</v>
       </c>
     </row>
@@ -1632,18 +1634,18 @@
       <c r="O7">
         <v>4</v>
       </c>
-      <c r="P7" s="21">
+      <c r="P7" s="3">
         <v>0.44</v>
       </c>
       <c r="Q7">
         <v>1</v>
       </c>
       <c r="R7">
-        <f>O7/3</f>
+        <f t="shared" si="0"/>
         <v>1.3333333333333333</v>
       </c>
       <c r="S7">
-        <f>$Q7*$R7+O7*(P7+1)/2</f>
+        <f t="shared" si="1"/>
         <v>4.2133333333333329</v>
       </c>
     </row>
@@ -1654,18 +1656,18 @@
       <c r="O8">
         <v>6</v>
       </c>
-      <c r="P8" s="21">
+      <c r="P8" s="3">
         <v>0.33</v>
       </c>
       <c r="Q8">
         <v>2</v>
       </c>
       <c r="R8">
-        <f>O8/3</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="S8">
-        <f>$Q8*$R8+O8*(P8+1)/2</f>
+        <f t="shared" si="1"/>
         <v>7.99</v>
       </c>
     </row>
@@ -1676,18 +1678,18 @@
       <c r="O9">
         <v>10</v>
       </c>
-      <c r="P9" s="21">
+      <c r="P9" s="3">
         <v>0.2</v>
       </c>
       <c r="Q9">
         <v>4</v>
       </c>
       <c r="R9">
-        <f>O9/3</f>
+        <f t="shared" si="0"/>
         <v>3.3333333333333335</v>
       </c>
       <c r="S9">
-        <f>$Q9*$R9+O9*(P9+1)/2</f>
+        <f t="shared" si="1"/>
         <v>19.333333333333336</v>
       </c>
     </row>
@@ -1698,18 +1700,18 @@
       <c r="O10">
         <v>12</v>
       </c>
-      <c r="P10" s="21">
+      <c r="P10" s="3">
         <v>0.2</v>
       </c>
       <c r="Q10">
         <v>4</v>
       </c>
       <c r="R10">
-        <f>O10/3</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="S10">
-        <f>$Q10*$R10+O10*(P10+1)/2</f>
+        <f t="shared" si="1"/>
         <v>23.2</v>
       </c>
     </row>
@@ -1720,18 +1722,18 @@
       <c r="O11">
         <v>15</v>
       </c>
-      <c r="P11" s="21">
+      <c r="P11" s="3">
         <v>0.2</v>
       </c>
       <c r="Q11">
         <v>4</v>
       </c>
       <c r="R11">
-        <f>O11/3</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="S11">
-        <f>$Q11*$R11+O11*(P11+1)/2</f>
+        <f t="shared" si="1"/>
         <v>29</v>
       </c>
     </row>
@@ -1742,18 +1744,18 @@
       <c r="O12">
         <v>16</v>
       </c>
-      <c r="P12" s="21">
+      <c r="P12" s="3">
         <v>0.2</v>
       </c>
       <c r="Q12">
         <v>4</v>
       </c>
       <c r="R12">
-        <f>O12/3</f>
+        <f t="shared" si="0"/>
         <v>5.333333333333333</v>
       </c>
       <c r="S12">
-        <f>$Q12*$R12+O12*(P12+1)/2</f>
+        <f t="shared" si="1"/>
         <v>30.93333333333333</v>
       </c>
     </row>
@@ -1764,18 +1766,18 @@
       <c r="O13">
         <v>18</v>
       </c>
-      <c r="P13" s="21">
+      <c r="P13" s="3">
         <v>0.2</v>
       </c>
       <c r="Q13">
         <v>4</v>
       </c>
       <c r="R13">
-        <f>O13/3</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="S13">
-        <f>$Q13*$R13+O13*(P13+1)/2</f>
+        <f t="shared" si="1"/>
         <v>34.799999999999997</v>
       </c>
     </row>
@@ -1822,14 +1824,14 @@
       <c r="C22">
         <v>10</v>
       </c>
-      <c r="D22" s="20">
+      <c r="D22" s="2">
         <v>2</v>
       </c>
       <c r="E22">
-        <f>D22/S5</f>
+        <f t="shared" ref="E22:E30" si="2">D22/S5</f>
         <v>0.54054054054054046</v>
       </c>
-      <c r="I22" s="19">
+      <c r="I22" s="1">
         <v>300</v>
       </c>
       <c r="K22" t="s">
@@ -1843,14 +1845,14 @@
       <c r="C23">
         <v>15</v>
       </c>
-      <c r="D23" s="20">
+      <c r="D23" s="2">
         <v>5</v>
       </c>
       <c r="E23">
-        <f>D23/S6</f>
+        <f t="shared" si="2"/>
         <v>1.153846153846154</v>
       </c>
-      <c r="I23" s="19">
+      <c r="I23" s="1">
         <v>2000</v>
       </c>
       <c r="K23" t="s">
@@ -1864,14 +1866,14 @@
       <c r="C24">
         <v>20</v>
       </c>
-      <c r="D24" s="20">
+      <c r="D24" s="2">
         <v>10</v>
       </c>
       <c r="E24">
-        <f>D24/S7</f>
+        <f t="shared" si="2"/>
         <v>2.3734177215189876</v>
       </c>
-      <c r="I24" s="19">
+      <c r="I24" s="1">
         <v>4000</v>
       </c>
       <c r="K24" t="s">
@@ -1885,11 +1887,11 @@
       <c r="C25">
         <v>25</v>
       </c>
-      <c r="D25" s="20">
+      <c r="D25" s="2">
         <v>30</v>
       </c>
       <c r="E25">
-        <f>D25/S8</f>
+        <f t="shared" si="2"/>
         <v>3.7546933667083855</v>
       </c>
       <c r="G25">
@@ -1898,7 +1900,7 @@
       <c r="H25">
         <v>1</v>
       </c>
-      <c r="I25" s="19">
+      <c r="I25" s="1">
         <v>8000</v>
       </c>
       <c r="K25" t="s">
@@ -1912,11 +1914,11 @@
       <c r="C26">
         <v>30</v>
       </c>
-      <c r="D26" s="20">
+      <c r="D26" s="2">
         <v>80</v>
       </c>
       <c r="E26">
-        <f>D26/S9</f>
+        <f t="shared" si="2"/>
         <v>4.137931034482758</v>
       </c>
       <c r="G26">
@@ -1925,7 +1927,7 @@
       <c r="H26">
         <v>3</v>
       </c>
-      <c r="I26" s="19">
+      <c r="I26" s="1">
         <v>20000</v>
       </c>
       <c r="K26" t="s">
@@ -1939,11 +1941,11 @@
       <c r="C27">
         <v>35</v>
       </c>
-      <c r="D27" s="20">
+      <c r="D27" s="2">
         <v>200</v>
       </c>
       <c r="E27">
-        <f>D27/S10</f>
+        <f t="shared" si="2"/>
         <v>8.6206896551724146</v>
       </c>
       <c r="G27">
@@ -1952,7 +1954,7 @@
       <c r="H27">
         <v>3</v>
       </c>
-      <c r="I27" s="19">
+      <c r="I27" s="1">
         <v>30000</v>
       </c>
       <c r="K27" t="s">
@@ -1966,11 +1968,11 @@
       <c r="C28">
         <v>40</v>
       </c>
-      <c r="D28" s="20">
+      <c r="D28" s="2">
         <v>500</v>
       </c>
       <c r="E28">
-        <f>D28/S11</f>
+        <f t="shared" si="2"/>
         <v>17.241379310344829</v>
       </c>
       <c r="G28">
@@ -1979,7 +1981,7 @@
       <c r="H28">
         <v>5</v>
       </c>
-      <c r="I28" s="19">
+      <c r="I28" s="1">
         <v>50000</v>
       </c>
       <c r="K28" t="s">
@@ -1993,11 +1995,11 @@
       <c r="C29">
         <v>45</v>
       </c>
-      <c r="D29" s="20">
+      <c r="D29" s="2">
         <v>700</v>
       </c>
       <c r="E29">
-        <f>D29/S12</f>
+        <f t="shared" si="2"/>
         <v>22.629310344827587</v>
       </c>
       <c r="G29">
@@ -2006,7 +2008,7 @@
       <c r="H29">
         <v>5</v>
       </c>
-      <c r="I29" s="19">
+      <c r="I29" s="1">
         <v>80000</v>
       </c>
       <c r="K29" t="s">
@@ -2020,11 +2022,11 @@
       <c r="C30">
         <v>50</v>
       </c>
-      <c r="D30" s="20">
+      <c r="D30" s="2">
         <v>2500</v>
       </c>
       <c r="E30">
-        <f>D30/S13</f>
+        <f t="shared" si="2"/>
         <v>71.839080459770116</v>
       </c>
       <c r="G30">
@@ -2033,7 +2035,7 @@
       <c r="H30">
         <v>5</v>
       </c>
-      <c r="I30" s="19">
+      <c r="I30" s="1">
         <v>100000</v>
       </c>
       <c r="K30" t="s">
@@ -2110,7 +2112,7 @@
       <c r="B6">
         <v>25</v>
       </c>
-      <c r="C6" s="22" t="s">
+      <c r="C6" s="4" t="s">
         <v>65</v>
       </c>
       <c r="D6" t="s">
@@ -2222,7 +2224,7 @@
       <c r="B14">
         <v>46</v>
       </c>
-      <c r="C14" s="22" t="s">
+      <c r="C14" s="4" t="s">
         <v>50</v>
       </c>
       <c r="D14" t="s">
@@ -2341,782 +2343,782 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="8" width="9" style="23"/>
-    <col min="9" max="9" width="11.625" style="23" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.125" style="23" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="23"/>
+    <col min="1" max="8" width="9" style="5"/>
+    <col min="9" max="9" width="11.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.125" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="D1" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="E1" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="F1" s="23" t="s">
+      <c r="F1" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="G1" s="23" t="s">
+      <c r="G1" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="H1" s="23" t="s">
+      <c r="H1" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="I1" s="23" t="s">
+      <c r="I1" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="J1" s="23" t="s">
+      <c r="J1" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="K1" s="23" t="s">
+      <c r="K1" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="L1" s="23" t="s">
+      <c r="L1" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="M1" s="23" t="s">
+      <c r="M1" s="5" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="C2" s="23" t="s">
+      <c r="C2" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="D2" s="23" t="s">
+      <c r="D2" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="E2" s="23" t="s">
+      <c r="E2" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="F2" s="23" t="s">
+      <c r="F2" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="G2" s="23" t="s">
+      <c r="G2" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="H2" s="23" t="s">
+      <c r="H2" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="I2" s="23" t="s">
+      <c r="I2" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="J2" s="23" t="s">
+      <c r="J2" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="K2" s="23" t="s">
+      <c r="K2" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="L2" s="23" t="s">
+      <c r="L2" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="M2" s="23" t="s">
+      <c r="M2" s="5" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="C3" s="23" t="s">
+      <c r="C3" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="D3" s="23" t="s">
+      <c r="D3" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="E3" s="23" t="s">
+      <c r="E3" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="F3" s="23" t="s">
+      <c r="F3" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="G3" s="23" t="s">
+      <c r="G3" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="H3" s="23" t="s">
+      <c r="H3" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="I3" s="23" t="s">
+      <c r="I3" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="J3" s="23" t="s">
+      <c r="J3" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="K3" s="23" t="s">
+      <c r="K3" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="L3" s="23" t="s">
+      <c r="L3" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="M3" s="23" t="s">
+      <c r="M3" s="5" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A4" s="23">
-        <v>0</v>
-      </c>
-      <c r="B4" s="23">
-        <v>0</v>
-      </c>
-      <c r="C4" s="23">
-        <v>0</v>
-      </c>
-      <c r="D4" s="23">
-        <v>0</v>
-      </c>
-      <c r="E4" s="23">
-        <v>0</v>
-      </c>
-      <c r="F4" s="23">
-        <v>0</v>
-      </c>
-      <c r="G4" s="23">
-        <v>0</v>
-      </c>
-      <c r="H4" s="23">
-        <v>0</v>
-      </c>
-      <c r="I4" s="23">
-        <v>0</v>
-      </c>
-      <c r="J4" s="23">
-        <v>0</v>
-      </c>
-      <c r="K4" s="23">
+      <c r="A4" s="5">
+        <v>0</v>
+      </c>
+      <c r="B4" s="5">
+        <v>0</v>
+      </c>
+      <c r="C4" s="5">
+        <v>0</v>
+      </c>
+      <c r="D4" s="5">
+        <v>0</v>
+      </c>
+      <c r="E4" s="5">
+        <v>0</v>
+      </c>
+      <c r="F4" s="5">
+        <v>0</v>
+      </c>
+      <c r="G4" s="5">
+        <v>0</v>
+      </c>
+      <c r="H4" s="5">
+        <v>0</v>
+      </c>
+      <c r="I4" s="5">
+        <v>0</v>
+      </c>
+      <c r="J4" s="5">
+        <v>0</v>
+      </c>
+      <c r="K4" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A5" s="23">
-        <v>1</v>
-      </c>
-      <c r="B5" s="23">
+      <c r="A5" s="5">
+        <v>1</v>
+      </c>
+      <c r="B5" s="5">
         <f>[1]属性拆分生成!I31</f>
-        <v>88</v>
-      </c>
-      <c r="C5" s="23">
+        <v>18</v>
+      </c>
+      <c r="C5" s="5">
         <f>[1]属性拆分生成!J31</f>
-        <v>12</v>
-      </c>
-      <c r="D5" s="23">
+        <v>2</v>
+      </c>
+      <c r="D5" s="5">
         <f>[1]属性拆分生成!K31</f>
-        <v>12</v>
-      </c>
-      <c r="F5" s="23">
+        <v>2</v>
+      </c>
+      <c r="F5" s="5">
         <f>[1]属性拆分生成!L31</f>
-        <v>19</v>
-      </c>
-      <c r="G5" s="23">
-        <v>0</v>
-      </c>
-      <c r="H5" s="23">
-        <v>0</v>
-      </c>
-      <c r="I5" s="23">
-        <v>1</v>
-      </c>
-      <c r="J5" s="23">
+        <v>4</v>
+      </c>
+      <c r="G5" s="5">
+        <v>0</v>
+      </c>
+      <c r="H5" s="5">
+        <v>0</v>
+      </c>
+      <c r="I5" s="5">
+        <v>1</v>
+      </c>
+      <c r="J5" s="5">
         <f>升阶消耗!C22</f>
         <v>10</v>
       </c>
-      <c r="K5" s="23">
-        <v>1</v>
-      </c>
-      <c r="L5" s="23" t="s">
+      <c r="K5" s="5">
+        <v>1</v>
+      </c>
+      <c r="L5" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="M5" s="23" t="s">
+      <c r="M5" s="5" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A6" s="23">
+      <c r="A6" s="5">
         <v>2</v>
       </c>
-      <c r="B6" s="23">
+      <c r="B6" s="5">
         <f>[1]属性拆分生成!I32</f>
-        <v>96</v>
-      </c>
-      <c r="C6" s="23">
+        <v>38</v>
+      </c>
+      <c r="C6" s="5">
         <f>[1]属性拆分生成!J32</f>
-        <v>13</v>
-      </c>
-      <c r="D6" s="23">
+        <v>4</v>
+      </c>
+      <c r="D6" s="5">
         <f>[1]属性拆分生成!K32</f>
-        <v>13</v>
-      </c>
-      <c r="F6" s="23">
+        <v>4</v>
+      </c>
+      <c r="F6" s="5">
         <f>[1]属性拆分生成!L32</f>
-        <v>21</v>
-      </c>
-      <c r="G6" s="23">
-        <v>0</v>
-      </c>
-      <c r="H6" s="23">
-        <v>0</v>
-      </c>
-      <c r="I6" s="23">
-        <v>1</v>
-      </c>
-      <c r="J6" s="23">
+        <v>8</v>
+      </c>
+      <c r="G6" s="5">
+        <v>0</v>
+      </c>
+      <c r="H6" s="5">
+        <v>0</v>
+      </c>
+      <c r="I6" s="5">
+        <v>1</v>
+      </c>
+      <c r="J6" s="5">
         <f>升阶消耗!C23</f>
         <v>15</v>
       </c>
-      <c r="K6" s="23">
-        <v>1</v>
-      </c>
-      <c r="L6" s="23" t="s">
+      <c r="K6" s="5">
+        <v>1</v>
+      </c>
+      <c r="L6" s="5" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A7" s="23">
+      <c r="A7" s="5">
         <v>3</v>
       </c>
-      <c r="B7" s="23">
+      <c r="B7" s="5">
         <f>[1]属性拆分生成!I33</f>
-        <v>114</v>
-      </c>
-      <c r="C7" s="23">
+        <v>61</v>
+      </c>
+      <c r="C7" s="5">
         <f>[1]属性拆分生成!J33</f>
-        <v>16</v>
-      </c>
-      <c r="D7" s="23">
+        <v>7</v>
+      </c>
+      <c r="D7" s="5">
         <f>[1]属性拆分生成!K33</f>
-        <v>16</v>
-      </c>
-      <c r="F7" s="23">
+        <v>7</v>
+      </c>
+      <c r="F7" s="5">
         <f>[1]属性拆分生成!L33</f>
-        <v>25</v>
-      </c>
-      <c r="G7" s="23">
-        <v>0</v>
-      </c>
-      <c r="H7" s="23">
-        <v>0</v>
-      </c>
-      <c r="I7" s="23">
-        <v>1</v>
-      </c>
-      <c r="J7" s="23">
+        <v>13</v>
+      </c>
+      <c r="G7" s="5">
+        <v>0</v>
+      </c>
+      <c r="H7" s="5">
+        <v>0</v>
+      </c>
+      <c r="I7" s="5">
+        <v>1</v>
+      </c>
+      <c r="J7" s="5">
         <f>升阶消耗!C24</f>
         <v>20</v>
       </c>
-      <c r="K7" s="23">
-        <v>1</v>
-      </c>
-      <c r="L7" s="23" t="s">
+      <c r="K7" s="5">
+        <v>1</v>
+      </c>
+      <c r="L7" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="M7" s="23" t="s">
+      <c r="M7" s="5" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A8" s="23">
+      <c r="A8" s="5">
         <v>4</v>
       </c>
-      <c r="B8" s="23">
+      <c r="B8" s="5">
         <f>[1]属性拆分生成!I34</f>
-        <v>130</v>
-      </c>
-      <c r="C8" s="23">
+        <v>88</v>
+      </c>
+      <c r="C8" s="5">
         <f>[1]属性拆分生成!J34</f>
-        <v>18</v>
-      </c>
-      <c r="D8" s="23">
+        <v>10</v>
+      </c>
+      <c r="D8" s="5">
         <f>[1]属性拆分生成!K34</f>
-        <v>18</v>
-      </c>
-      <c r="F8" s="23">
+        <v>10</v>
+      </c>
+      <c r="F8" s="5">
         <f>[1]属性拆分生成!L34</f>
-        <v>28</v>
-      </c>
-      <c r="G8" s="23">
-        <v>0</v>
-      </c>
-      <c r="H8" s="23">
-        <v>0</v>
-      </c>
-      <c r="I8" s="23">
-        <v>1</v>
-      </c>
-      <c r="J8" s="23">
+        <v>19</v>
+      </c>
+      <c r="G8" s="5">
+        <v>0</v>
+      </c>
+      <c r="H8" s="5">
+        <v>0</v>
+      </c>
+      <c r="I8" s="5">
+        <v>1</v>
+      </c>
+      <c r="J8" s="5">
         <f>升阶消耗!C25</f>
         <v>25</v>
       </c>
-      <c r="K8" s="23">
-        <v>1</v>
-      </c>
-      <c r="L8" s="23" t="s">
+      <c r="K8" s="5">
+        <v>1</v>
+      </c>
+      <c r="L8" s="5" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A9" s="23">
+      <c r="A9" s="5">
         <v>5</v>
       </c>
-      <c r="B9" s="23">
+      <c r="B9" s="5">
         <f>[1]属性拆分生成!I35</f>
-        <v>146</v>
-      </c>
-      <c r="C9" s="23">
+        <v>118</v>
+      </c>
+      <c r="C9" s="5">
         <f>[1]属性拆分生成!J35</f>
-        <v>20</v>
-      </c>
-      <c r="D9" s="23">
+        <v>13</v>
+      </c>
+      <c r="D9" s="5">
         <f>[1]属性拆分生成!K35</f>
-        <v>20</v>
-      </c>
-      <c r="F9" s="23">
+        <v>13</v>
+      </c>
+      <c r="F9" s="5">
         <f>[1]属性拆分生成!L35</f>
-        <v>31</v>
-      </c>
-      <c r="G9" s="23">
-        <v>0</v>
-      </c>
-      <c r="H9" s="23">
-        <v>0</v>
-      </c>
-      <c r="I9" s="23">
-        <v>1</v>
-      </c>
-      <c r="J9" s="23">
+        <v>26</v>
+      </c>
+      <c r="G9" s="5">
+        <v>0</v>
+      </c>
+      <c r="H9" s="5">
+        <v>0</v>
+      </c>
+      <c r="I9" s="5">
+        <v>1</v>
+      </c>
+      <c r="J9" s="5">
         <f>升阶消耗!C26</f>
         <v>30</v>
       </c>
-      <c r="K9" s="23">
-        <v>1</v>
-      </c>
-      <c r="L9" s="23" t="s">
+      <c r="K9" s="5">
+        <v>1</v>
+      </c>
+      <c r="L9" s="5" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A10" s="23">
+      <c r="A10" s="5">
         <v>6</v>
       </c>
-      <c r="B10" s="23">
+      <c r="B10" s="5">
         <f>[1]属性拆分生成!I36</f>
-        <v>175</v>
-      </c>
-      <c r="C10" s="23">
+        <v>154</v>
+      </c>
+      <c r="C10" s="5">
         <f>[1]属性拆分生成!J36</f>
-        <v>24</v>
-      </c>
-      <c r="D10" s="23">
+        <v>17</v>
+      </c>
+      <c r="D10" s="5">
         <f>[1]属性拆分生成!K36</f>
-        <v>24</v>
-      </c>
-      <c r="F10" s="23">
+        <v>17</v>
+      </c>
+      <c r="F10" s="5">
         <f>[1]属性拆分生成!L36</f>
-        <v>38</v>
-      </c>
-      <c r="G10" s="23">
-        <v>0</v>
-      </c>
-      <c r="H10" s="23">
-        <v>0</v>
-      </c>
-      <c r="I10" s="23">
-        <v>1</v>
-      </c>
-      <c r="J10" s="23">
+        <v>34</v>
+      </c>
+      <c r="G10" s="5">
+        <v>0</v>
+      </c>
+      <c r="H10" s="5">
+        <v>0</v>
+      </c>
+      <c r="I10" s="5">
+        <v>1</v>
+      </c>
+      <c r="J10" s="5">
         <f>升阶消耗!C27</f>
         <v>35</v>
       </c>
-      <c r="K10" s="23">
-        <v>1</v>
-      </c>
-      <c r="L10" s="23" t="s">
+      <c r="K10" s="5">
+        <v>1</v>
+      </c>
+      <c r="L10" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="M10" s="23" t="s">
+      <c r="M10" s="5" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A11" s="23">
+      <c r="A11" s="5">
         <v>7</v>
       </c>
-      <c r="B11" s="23">
+      <c r="B11" s="5">
         <f>[1]属性拆分生成!I37</f>
-        <v>198</v>
-      </c>
-      <c r="C11" s="23">
+        <v>195</v>
+      </c>
+      <c r="C11" s="5">
         <f>[1]属性拆分生成!J37</f>
-        <v>27</v>
-      </c>
-      <c r="D11" s="23">
+        <v>22</v>
+      </c>
+      <c r="D11" s="5">
         <f>[1]属性拆分生成!K37</f>
-        <v>27</v>
-      </c>
-      <c r="F11" s="23">
+        <v>22</v>
+      </c>
+      <c r="F11" s="5">
         <f>[1]属性拆分生成!L37</f>
         <v>43</v>
       </c>
-      <c r="G11" s="23">
-        <v>0</v>
-      </c>
-      <c r="H11" s="23">
-        <v>0</v>
-      </c>
-      <c r="I11" s="23">
-        <v>1</v>
-      </c>
-      <c r="J11" s="23">
+      <c r="G11" s="5">
+        <v>0</v>
+      </c>
+      <c r="H11" s="5">
+        <v>0</v>
+      </c>
+      <c r="I11" s="5">
+        <v>1</v>
+      </c>
+      <c r="J11" s="5">
         <f>升阶消耗!C28</f>
         <v>40</v>
       </c>
-      <c r="K11" s="23">
-        <v>1</v>
-      </c>
-      <c r="L11" s="23" t="s">
+      <c r="K11" s="5">
+        <v>1</v>
+      </c>
+      <c r="L11" s="5" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A12" s="23">
+      <c r="A12" s="5">
         <v>8</v>
       </c>
-      <c r="B12" s="23">
+      <c r="B12" s="5">
         <f>[1]属性拆分生成!I38</f>
-        <v>222</v>
-      </c>
-      <c r="C12" s="23">
+        <v>240</v>
+      </c>
+      <c r="C12" s="5">
         <f>[1]属性拆分生成!J38</f>
-        <v>30</v>
-      </c>
-      <c r="D12" s="23">
+        <v>27</v>
+      </c>
+      <c r="D12" s="5">
         <f>[1]属性拆分生成!K38</f>
-        <v>30</v>
-      </c>
-      <c r="F12" s="23">
+        <v>27</v>
+      </c>
+      <c r="F12" s="5">
         <f>[1]属性拆分生成!L38</f>
-        <v>48</v>
-      </c>
-      <c r="G12" s="23">
-        <v>0</v>
-      </c>
-      <c r="H12" s="23">
-        <v>0</v>
-      </c>
-      <c r="I12" s="23">
-        <v>1</v>
-      </c>
-      <c r="J12" s="23">
+        <v>53</v>
+      </c>
+      <c r="G12" s="5">
+        <v>0</v>
+      </c>
+      <c r="H12" s="5">
+        <v>0</v>
+      </c>
+      <c r="I12" s="5">
+        <v>1</v>
+      </c>
+      <c r="J12" s="5">
         <f>升阶消耗!C29</f>
         <v>45</v>
       </c>
-      <c r="K12" s="23">
-        <v>1</v>
-      </c>
-      <c r="L12" s="23" t="s">
+      <c r="K12" s="5">
+        <v>1</v>
+      </c>
+      <c r="L12" s="5" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A13" s="23">
+      <c r="A13" s="5">
         <v>9</v>
       </c>
-      <c r="B13" s="23">
+      <c r="B13" s="5">
         <f>[1]属性拆分生成!I39</f>
-        <v>254</v>
-      </c>
-      <c r="C13" s="23">
+        <v>292</v>
+      </c>
+      <c r="C13" s="5">
         <f>[1]属性拆分生成!J39</f>
-        <v>35</v>
-      </c>
-      <c r="D13" s="23">
+        <v>33</v>
+      </c>
+      <c r="D13" s="5">
         <f>[1]属性拆分生成!K39</f>
-        <v>35</v>
-      </c>
-      <c r="F13" s="23">
+        <v>33</v>
+      </c>
+      <c r="F13" s="5">
         <f>[1]属性拆分生成!L39</f>
-        <v>55</v>
-      </c>
-      <c r="G13" s="23">
-        <v>0</v>
-      </c>
-      <c r="H13" s="23">
-        <v>0</v>
-      </c>
-      <c r="I13" s="23">
-        <v>1</v>
-      </c>
-      <c r="J13" s="23">
+        <v>65</v>
+      </c>
+      <c r="G13" s="5">
+        <v>0</v>
+      </c>
+      <c r="H13" s="5">
+        <v>0</v>
+      </c>
+      <c r="I13" s="5">
+        <v>1</v>
+      </c>
+      <c r="J13" s="5">
         <f>升阶消耗!C30</f>
         <v>50</v>
       </c>
-      <c r="K13" s="23">
-        <v>1</v>
-      </c>
-      <c r="L13" s="23" t="s">
+      <c r="K13" s="5">
+        <v>1</v>
+      </c>
+      <c r="L13" s="5" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A14" s="23">
+      <c r="A14" s="5">
         <v>10</v>
       </c>
-      <c r="B14" s="23">
+      <c r="B14" s="5">
         <f>[1]属性拆分生成!I40</f>
         <v>0</v>
       </c>
-      <c r="C14" s="23">
+      <c r="C14" s="5">
         <f>[1]属性拆分生成!J40</f>
         <v>0</v>
       </c>
-      <c r="D14" s="23">
+      <c r="D14" s="5">
         <f>[1]属性拆分生成!K40</f>
         <v>0</v>
       </c>
-      <c r="F14" s="23">
+      <c r="F14" s="5">
         <f>[1]属性拆分生成!L40</f>
         <v>0</v>
       </c>
-      <c r="G14" s="23">
-        <v>0</v>
-      </c>
-      <c r="H14" s="23">
-        <v>0</v>
-      </c>
-      <c r="I14" s="23">
-        <v>1</v>
-      </c>
-      <c r="J14" s="23">
+      <c r="G14" s="5">
+        <v>0</v>
+      </c>
+      <c r="H14" s="5">
+        <v>0</v>
+      </c>
+      <c r="I14" s="5">
+        <v>1</v>
+      </c>
+      <c r="J14" s="5">
         <f>升阶消耗!C31</f>
         <v>0</v>
       </c>
-      <c r="K14" s="23">
-        <v>1</v>
-      </c>
-      <c r="L14" s="23" t="s">
+      <c r="K14" s="5">
+        <v>1</v>
+      </c>
+      <c r="L14" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="M14" s="23" t="s">
+      <c r="M14" s="5" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A15" s="23">
+      <c r="A15" s="5">
         <v>11</v>
       </c>
-      <c r="B15" s="23">
+      <c r="B15" s="5">
         <f>[1]属性拆分生成!I41</f>
         <v>0</v>
       </c>
-      <c r="C15" s="23">
+      <c r="C15" s="5">
         <f>[1]属性拆分生成!J41</f>
         <v>0</v>
       </c>
-      <c r="D15" s="23">
+      <c r="D15" s="5">
         <f>[1]属性拆分生成!K41</f>
         <v>0</v>
       </c>
-      <c r="F15" s="23">
+      <c r="F15" s="5">
         <f>[1]属性拆分生成!L41</f>
         <v>0</v>
       </c>
-      <c r="G15" s="23">
-        <v>0</v>
-      </c>
-      <c r="H15" s="23">
-        <v>0</v>
-      </c>
-      <c r="I15" s="23">
-        <v>1</v>
-      </c>
-      <c r="J15" s="23">
+      <c r="G15" s="5">
+        <v>0</v>
+      </c>
+      <c r="H15" s="5">
+        <v>0</v>
+      </c>
+      <c r="I15" s="5">
+        <v>1</v>
+      </c>
+      <c r="J15" s="5">
         <f>升阶消耗!C32</f>
         <v>0</v>
       </c>
-      <c r="K15" s="23">
-        <v>1</v>
-      </c>
-      <c r="L15" s="23" t="s">
+      <c r="K15" s="5">
+        <v>1</v>
+      </c>
+      <c r="L15" s="5" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A16" s="23">
+      <c r="A16" s="5">
         <v>12</v>
       </c>
-      <c r="B16" s="23">
+      <c r="B16" s="5">
         <f>[1]属性拆分生成!I42</f>
         <v>0</v>
       </c>
-      <c r="C16" s="23">
+      <c r="C16" s="5">
         <f>[1]属性拆分生成!J42</f>
         <v>0</v>
       </c>
-      <c r="D16" s="23">
+      <c r="D16" s="5">
         <f>[1]属性拆分生成!K42</f>
         <v>0</v>
       </c>
-      <c r="F16" s="23">
+      <c r="F16" s="5">
         <f>[1]属性拆分生成!L42</f>
         <v>0</v>
       </c>
-      <c r="G16" s="23">
-        <v>0</v>
-      </c>
-      <c r="H16" s="23">
-        <v>0</v>
-      </c>
-      <c r="I16" s="23">
-        <v>1</v>
-      </c>
-      <c r="J16" s="23">
+      <c r="G16" s="5">
+        <v>0</v>
+      </c>
+      <c r="H16" s="5">
+        <v>0</v>
+      </c>
+      <c r="I16" s="5">
+        <v>1</v>
+      </c>
+      <c r="J16" s="5">
         <f>升阶消耗!C33</f>
         <v>0</v>
       </c>
-      <c r="K16" s="23">
-        <v>1</v>
-      </c>
-      <c r="L16" s="23" t="s">
+      <c r="K16" s="5">
+        <v>1</v>
+      </c>
+      <c r="L16" s="5" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A17" s="23">
+      <c r="A17" s="5">
         <v>13</v>
       </c>
-      <c r="B17" s="23">
+      <c r="B17" s="5">
         <f>[1]属性拆分生成!I43</f>
         <v>0</v>
       </c>
-      <c r="C17" s="23">
+      <c r="C17" s="5">
         <f>[1]属性拆分生成!J43</f>
         <v>0</v>
       </c>
-      <c r="D17" s="23">
+      <c r="D17" s="5">
         <f>[1]属性拆分生成!K43</f>
         <v>0</v>
       </c>
-      <c r="F17" s="23">
+      <c r="F17" s="5">
         <f>[1]属性拆分生成!L43</f>
         <v>0</v>
       </c>
-      <c r="G17" s="23">
-        <v>0</v>
-      </c>
-      <c r="H17" s="23">
-        <v>0</v>
-      </c>
-      <c r="I17" s="23">
-        <v>1</v>
-      </c>
-      <c r="J17" s="23">
+      <c r="G17" s="5">
+        <v>0</v>
+      </c>
+      <c r="H17" s="5">
+        <v>0</v>
+      </c>
+      <c r="I17" s="5">
+        <v>1</v>
+      </c>
+      <c r="J17" s="5">
         <f>升阶消耗!C34</f>
         <v>0</v>
       </c>
-      <c r="K17" s="23">
-        <v>1</v>
-      </c>
-      <c r="L17" s="23" t="s">
+      <c r="K17" s="5">
+        <v>1</v>
+      </c>
+      <c r="L17" s="5" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A18" s="23">
+      <c r="A18" s="5">
         <v>14</v>
       </c>
-      <c r="B18" s="23">
+      <c r="B18" s="5">
         <f>[1]属性拆分生成!I44</f>
         <v>0</v>
       </c>
-      <c r="C18" s="23">
+      <c r="C18" s="5">
         <f>[1]属性拆分生成!J44</f>
         <v>0</v>
       </c>
-      <c r="D18" s="23">
+      <c r="D18" s="5">
         <f>[1]属性拆分生成!K44</f>
         <v>0</v>
       </c>
-      <c r="F18" s="23">
+      <c r="F18" s="5">
         <f>[1]属性拆分生成!L44</f>
         <v>0</v>
       </c>
-      <c r="G18" s="23">
-        <v>0</v>
-      </c>
-      <c r="H18" s="23">
-        <v>0</v>
-      </c>
-      <c r="I18" s="23">
-        <v>1</v>
-      </c>
-      <c r="J18" s="23">
+      <c r="G18" s="5">
+        <v>0</v>
+      </c>
+      <c r="H18" s="5">
+        <v>0</v>
+      </c>
+      <c r="I18" s="5">
+        <v>1</v>
+      </c>
+      <c r="J18" s="5">
         <f>升阶消耗!C35</f>
         <v>0</v>
       </c>
-      <c r="K18" s="23">
-        <v>1</v>
-      </c>
-      <c r="L18" s="23" t="s">
+      <c r="K18" s="5">
+        <v>1</v>
+      </c>
+      <c r="L18" s="5" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A19" s="23">
+      <c r="A19" s="5">
         <v>15</v>
       </c>
-      <c r="B19" s="23">
+      <c r="B19" s="5">
         <f>[1]属性拆分生成!I45</f>
         <v>0</v>
       </c>
-      <c r="C19" s="23">
+      <c r="C19" s="5">
         <f>[1]属性拆分生成!J45</f>
         <v>0</v>
       </c>
-      <c r="D19" s="23">
+      <c r="D19" s="5">
         <f>[1]属性拆分生成!K45</f>
         <v>0</v>
       </c>
-      <c r="F19" s="23">
+      <c r="F19" s="5">
         <f>[1]属性拆分生成!L45</f>
         <v>0</v>
       </c>
-      <c r="G19" s="23">
-        <v>0</v>
-      </c>
-      <c r="H19" s="23">
-        <v>0</v>
-      </c>
-      <c r="I19" s="23">
-        <v>1</v>
-      </c>
-      <c r="J19" s="23">
+      <c r="G19" s="5">
+        <v>0</v>
+      </c>
+      <c r="H19" s="5">
+        <v>0</v>
+      </c>
+      <c r="I19" s="5">
+        <v>1</v>
+      </c>
+      <c r="J19" s="5">
         <f>升阶消耗!C36</f>
         <v>0</v>
       </c>
-      <c r="K19" s="23">
-        <v>1</v>
-      </c>
-      <c r="L19" s="23" t="s">
+      <c r="K19" s="5">
+        <v>1</v>
+      </c>
+      <c r="L19" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="M19" s="23" t="s">
+      <c r="M19" s="5" t="s">
         <v>74</v>
       </c>
     </row>

--- a/gd/数值规划/宠物养成-宠物升阶.xlsx
+++ b/gd/数值规划/宠物养成-宠物升阶.xlsx
@@ -730,6 +730,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -766,24 +784,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -807,10 +807,12 @@
       <sheetName val="职业调整模型"/>
       <sheetName val="属性拆分生成"/>
       <sheetName val="战斗验证"/>
+      <sheetName val="装备拆分生成表"/>
+      <sheetName val="属性能力生成表"/>
+      <sheetName val="装备属性生成表"/>
+      <sheetName val="宠物升阶生成表"/>
+      <sheetName val="装备拆分分析表"/>
       <sheetName val="镶嵌宝石"/>
-      <sheetName val="属性能力生成表"/>
-      <sheetName val="宠物升阶生成表"/>
-      <sheetName val="装备拆分生成表"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
@@ -818,128 +820,158 @@
       <sheetData sheetId="2">
         <row r="31">
           <cell r="I31">
-            <v>18</v>
+            <v>1</v>
           </cell>
           <cell r="J31">
-            <v>2</v>
+            <v>120</v>
           </cell>
           <cell r="K31">
-            <v>2</v>
+            <v>17</v>
           </cell>
           <cell r="L31">
-            <v>4</v>
+            <v>17</v>
           </cell>
         </row>
         <row r="32">
           <cell r="I32">
-            <v>38</v>
+            <v>2</v>
           </cell>
           <cell r="J32">
-            <v>4</v>
+            <v>251</v>
           </cell>
           <cell r="K32">
-            <v>4</v>
+            <v>36</v>
           </cell>
           <cell r="L32">
-            <v>8</v>
+            <v>36</v>
           </cell>
         </row>
         <row r="33">
           <cell r="I33">
-            <v>61</v>
+            <v>3</v>
           </cell>
           <cell r="J33">
-            <v>7</v>
+            <v>406</v>
           </cell>
           <cell r="K33">
-            <v>7</v>
+            <v>58</v>
           </cell>
           <cell r="L33">
-            <v>13</v>
+            <v>58</v>
           </cell>
         </row>
         <row r="34">
           <cell r="I34">
-            <v>88</v>
+            <v>4</v>
           </cell>
           <cell r="J34">
-            <v>10</v>
+            <v>583</v>
           </cell>
           <cell r="K34">
-            <v>10</v>
+            <v>83</v>
           </cell>
           <cell r="L34">
-            <v>19</v>
+            <v>83</v>
           </cell>
         </row>
         <row r="35">
           <cell r="I35">
-            <v>118</v>
+            <v>5</v>
           </cell>
           <cell r="J35">
-            <v>13</v>
+            <v>782</v>
           </cell>
           <cell r="K35">
-            <v>13</v>
+            <v>111</v>
           </cell>
           <cell r="L35">
-            <v>26</v>
+            <v>111</v>
           </cell>
         </row>
         <row r="36">
           <cell r="I36">
-            <v>154</v>
+            <v>6</v>
           </cell>
           <cell r="J36">
-            <v>17</v>
+            <v>1020</v>
           </cell>
           <cell r="K36">
-            <v>17</v>
+            <v>145</v>
           </cell>
           <cell r="L36">
-            <v>34</v>
+            <v>145</v>
           </cell>
         </row>
         <row r="37">
           <cell r="I37">
-            <v>195</v>
+            <v>7</v>
           </cell>
           <cell r="J37">
-            <v>22</v>
+            <v>1290</v>
           </cell>
           <cell r="K37">
-            <v>22</v>
+            <v>183</v>
           </cell>
           <cell r="L37">
-            <v>43</v>
+            <v>183</v>
           </cell>
         </row>
         <row r="38">
           <cell r="I38">
-            <v>240</v>
+            <v>8</v>
           </cell>
           <cell r="J38">
-            <v>27</v>
+            <v>1593</v>
           </cell>
           <cell r="K38">
-            <v>27</v>
+            <v>226</v>
           </cell>
           <cell r="L38">
-            <v>53</v>
+            <v>226</v>
           </cell>
         </row>
         <row r="39">
           <cell r="I39">
-            <v>292</v>
+            <v>9</v>
           </cell>
           <cell r="J39">
-            <v>33</v>
+            <v>1939</v>
           </cell>
           <cell r="K39">
-            <v>33</v>
+            <v>275</v>
           </cell>
           <cell r="L39">
-            <v>65</v>
+            <v>275</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="I40">
+            <v>10</v>
+          </cell>
+        </row>
+        <row r="41">
+          <cell r="I41">
+            <v>11</v>
+          </cell>
+        </row>
+        <row r="42">
+          <cell r="I42">
+            <v>12</v>
+          </cell>
+        </row>
+        <row r="43">
+          <cell r="I43">
+            <v>13</v>
+          </cell>
+        </row>
+        <row r="44">
+          <cell r="I44">
+            <v>14</v>
+          </cell>
+        </row>
+        <row r="45">
+          <cell r="I45">
+            <v>15</v>
           </cell>
         </row>
       </sheetData>
@@ -948,6 +980,8 @@
       <sheetData sheetId="5"/>
       <sheetData sheetId="6"/>
       <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1250,269 +1284,269 @@
   <sheetData>
     <row r="3" spans="3:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="4" spans="3:11" x14ac:dyDescent="0.15">
-      <c r="C4" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" s="19"/>
-      <c r="E4" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="22"/>
-      <c r="J4" s="19" t="s">
+      <c r="C4" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="7"/>
+      <c r="E4" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="K4" s="23"/>
+      <c r="K4" s="11"/>
     </row>
     <row r="5" spans="3:11" x14ac:dyDescent="0.15">
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="7"/>
-      <c r="E5" s="8" t="s">
+      <c r="D5" s="13"/>
+      <c r="E5" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="11"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="17"/>
     </row>
     <row r="6" spans="3:11" x14ac:dyDescent="0.15">
-      <c r="C6" s="6"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="11"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="17"/>
     </row>
     <row r="7" spans="3:11" x14ac:dyDescent="0.15">
-      <c r="C7" s="6"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="11"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="17"/>
     </row>
     <row r="8" spans="3:11" x14ac:dyDescent="0.15">
-      <c r="C8" s="6"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="11"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="17"/>
     </row>
     <row r="9" spans="3:11" x14ac:dyDescent="0.15">
-      <c r="C9" s="6"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="11"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="17"/>
     </row>
     <row r="10" spans="3:11" x14ac:dyDescent="0.15">
-      <c r="C10" s="6"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="11"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="17"/>
     </row>
     <row r="11" spans="3:11" x14ac:dyDescent="0.15">
-      <c r="C11" s="6"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="11"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="17"/>
     </row>
     <row r="12" spans="3:11" x14ac:dyDescent="0.15">
-      <c r="C12" s="6"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="11"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="17"/>
     </row>
     <row r="13" spans="3:11" x14ac:dyDescent="0.15">
-      <c r="C13" s="6"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="11"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="17"/>
     </row>
     <row r="14" spans="3:11" x14ac:dyDescent="0.15">
-      <c r="C14" s="6"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="11"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="13"/>
+      <c r="K14" s="17"/>
     </row>
     <row r="15" spans="3:11" x14ac:dyDescent="0.15">
-      <c r="C15" s="6"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="11"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="17"/>
     </row>
     <row r="16" spans="3:11" x14ac:dyDescent="0.15">
-      <c r="C16" s="6"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="7"/>
-      <c r="K16" s="11"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="16"/>
+      <c r="J16" s="13"/>
+      <c r="K16" s="17"/>
     </row>
     <row r="17" spans="3:11" x14ac:dyDescent="0.15">
-      <c r="C17" s="6"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="10"/>
-      <c r="J17" s="7"/>
-      <c r="K17" s="11"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="16"/>
+      <c r="J17" s="13"/>
+      <c r="K17" s="17"/>
     </row>
     <row r="18" spans="3:11" x14ac:dyDescent="0.15">
-      <c r="C18" s="6"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="10"/>
-      <c r="J18" s="7"/>
-      <c r="K18" s="11"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="16"/>
+      <c r="J18" s="13"/>
+      <c r="K18" s="17"/>
     </row>
     <row r="19" spans="3:11" x14ac:dyDescent="0.15">
-      <c r="C19" s="6"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="10"/>
-      <c r="J19" s="7"/>
-      <c r="K19" s="11"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="15"/>
+      <c r="I19" s="16"/>
+      <c r="J19" s="13"/>
+      <c r="K19" s="17"/>
     </row>
     <row r="20" spans="3:11" x14ac:dyDescent="0.15">
-      <c r="C20" s="6"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="10"/>
-      <c r="J20" s="7"/>
-      <c r="K20" s="11"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="15"/>
+      <c r="I20" s="16"/>
+      <c r="J20" s="13"/>
+      <c r="K20" s="17"/>
     </row>
     <row r="21" spans="3:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="C21" s="12"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="15"/>
-      <c r="H21" s="15"/>
-      <c r="I21" s="16"/>
-      <c r="J21" s="13"/>
-      <c r="K21" s="17"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="21"/>
+      <c r="H21" s="21"/>
+      <c r="I21" s="22"/>
+      <c r="J21" s="19"/>
+      <c r="K21" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="54">
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:I20"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:I21"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:I18"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:I19"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:I16"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:I17"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:I14"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:I15"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:I12"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:I13"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:I10"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:I11"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:I9"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:I6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:I7"/>
+    <mergeCell ref="J7:K7"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="E4:I4"/>
     <mergeCell ref="J4:K4"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="E5:I5"/>
     <mergeCell ref="J5:K5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:I6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:I8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:I9"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:I10"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:I11"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:I12"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:I13"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E14:I14"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E15:I15"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:I16"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:I17"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:I18"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:I19"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:I20"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:I21"/>
-    <mergeCell ref="J21:K21"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2513,19 +2547,19 @@
       </c>
       <c r="B5" s="5">
         <f>[1]属性拆分生成!I31</f>
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="C5" s="5">
         <f>[1]属性拆分生成!J31</f>
-        <v>2</v>
+        <v>120</v>
       </c>
       <c r="D5" s="5">
         <f>[1]属性拆分生成!K31</f>
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="F5" s="5">
         <f>[1]属性拆分生成!L31</f>
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="G5" s="5">
         <v>0</v>
@@ -2556,19 +2590,19 @@
       </c>
       <c r="B6" s="5">
         <f>[1]属性拆分生成!I32</f>
-        <v>38</v>
+        <v>2</v>
       </c>
       <c r="C6" s="5">
         <f>[1]属性拆分生成!J32</f>
-        <v>4</v>
+        <v>251</v>
       </c>
       <c r="D6" s="5">
         <f>[1]属性拆分生成!K32</f>
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="F6" s="5">
         <f>[1]属性拆分生成!L32</f>
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="G6" s="5">
         <v>0</v>
@@ -2596,19 +2630,19 @@
       </c>
       <c r="B7" s="5">
         <f>[1]属性拆分生成!I33</f>
-        <v>61</v>
+        <v>3</v>
       </c>
       <c r="C7" s="5">
         <f>[1]属性拆分生成!J33</f>
-        <v>7</v>
+        <v>406</v>
       </c>
       <c r="D7" s="5">
         <f>[1]属性拆分生成!K33</f>
-        <v>7</v>
+        <v>58</v>
       </c>
       <c r="F7" s="5">
         <f>[1]属性拆分生成!L33</f>
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="G7" s="5">
         <v>0</v>
@@ -2639,19 +2673,19 @@
       </c>
       <c r="B8" s="5">
         <f>[1]属性拆分生成!I34</f>
-        <v>88</v>
+        <v>4</v>
       </c>
       <c r="C8" s="5">
         <f>[1]属性拆分生成!J34</f>
-        <v>10</v>
+        <v>583</v>
       </c>
       <c r="D8" s="5">
         <f>[1]属性拆分生成!K34</f>
-        <v>10</v>
+        <v>83</v>
       </c>
       <c r="F8" s="5">
         <f>[1]属性拆分生成!L34</f>
-        <v>19</v>
+        <v>83</v>
       </c>
       <c r="G8" s="5">
         <v>0</v>
@@ -2679,19 +2713,19 @@
       </c>
       <c r="B9" s="5">
         <f>[1]属性拆分生成!I35</f>
-        <v>118</v>
+        <v>5</v>
       </c>
       <c r="C9" s="5">
         <f>[1]属性拆分生成!J35</f>
-        <v>13</v>
+        <v>782</v>
       </c>
       <c r="D9" s="5">
         <f>[1]属性拆分生成!K35</f>
-        <v>13</v>
+        <v>111</v>
       </c>
       <c r="F9" s="5">
         <f>[1]属性拆分生成!L35</f>
-        <v>26</v>
+        <v>111</v>
       </c>
       <c r="G9" s="5">
         <v>0</v>
@@ -2719,19 +2753,19 @@
       </c>
       <c r="B10" s="5">
         <f>[1]属性拆分生成!I36</f>
-        <v>154</v>
+        <v>6</v>
       </c>
       <c r="C10" s="5">
         <f>[1]属性拆分生成!J36</f>
-        <v>17</v>
+        <v>1020</v>
       </c>
       <c r="D10" s="5">
         <f>[1]属性拆分生成!K36</f>
-        <v>17</v>
+        <v>145</v>
       </c>
       <c r="F10" s="5">
         <f>[1]属性拆分生成!L36</f>
-        <v>34</v>
+        <v>145</v>
       </c>
       <c r="G10" s="5">
         <v>0</v>
@@ -2762,19 +2796,19 @@
       </c>
       <c r="B11" s="5">
         <f>[1]属性拆分生成!I37</f>
-        <v>195</v>
+        <v>7</v>
       </c>
       <c r="C11" s="5">
         <f>[1]属性拆分生成!J37</f>
-        <v>22</v>
+        <v>1290</v>
       </c>
       <c r="D11" s="5">
         <f>[1]属性拆分生成!K37</f>
-        <v>22</v>
+        <v>183</v>
       </c>
       <c r="F11" s="5">
         <f>[1]属性拆分生成!L37</f>
-        <v>43</v>
+        <v>183</v>
       </c>
       <c r="G11" s="5">
         <v>0</v>
@@ -2802,19 +2836,19 @@
       </c>
       <c r="B12" s="5">
         <f>[1]属性拆分生成!I38</f>
-        <v>240</v>
+        <v>8</v>
       </c>
       <c r="C12" s="5">
         <f>[1]属性拆分生成!J38</f>
-        <v>27</v>
+        <v>1593</v>
       </c>
       <c r="D12" s="5">
         <f>[1]属性拆分生成!K38</f>
-        <v>27</v>
+        <v>226</v>
       </c>
       <c r="F12" s="5">
         <f>[1]属性拆分生成!L38</f>
-        <v>53</v>
+        <v>226</v>
       </c>
       <c r="G12" s="5">
         <v>0</v>
@@ -2842,19 +2876,19 @@
       </c>
       <c r="B13" s="5">
         <f>[1]属性拆分生成!I39</f>
-        <v>292</v>
+        <v>9</v>
       </c>
       <c r="C13" s="5">
         <f>[1]属性拆分生成!J39</f>
-        <v>33</v>
+        <v>1939</v>
       </c>
       <c r="D13" s="5">
         <f>[1]属性拆分生成!K39</f>
-        <v>33</v>
+        <v>275</v>
       </c>
       <c r="F13" s="5">
         <f>[1]属性拆分生成!L39</f>
-        <v>65</v>
+        <v>275</v>
       </c>
       <c r="G13" s="5">
         <v>0</v>
@@ -2882,7 +2916,7 @@
       </c>
       <c r="B14" s="5">
         <f>[1]属性拆分生成!I40</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C14" s="5">
         <f>[1]属性拆分生成!J40</f>
@@ -2925,7 +2959,7 @@
       </c>
       <c r="B15" s="5">
         <f>[1]属性拆分生成!I41</f>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="C15" s="5">
         <f>[1]属性拆分生成!J41</f>
@@ -2965,7 +2999,7 @@
       </c>
       <c r="B16" s="5">
         <f>[1]属性拆分生成!I42</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="C16" s="5">
         <f>[1]属性拆分生成!J42</f>
@@ -3005,7 +3039,7 @@
       </c>
       <c r="B17" s="5">
         <f>[1]属性拆分生成!I43</f>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="C17" s="5">
         <f>[1]属性拆分生成!J43</f>
@@ -3045,7 +3079,7 @@
       </c>
       <c r="B18" s="5">
         <f>[1]属性拆分生成!I44</f>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="C18" s="5">
         <f>[1]属性拆分生成!J44</f>
@@ -3085,7 +3119,7 @@
       </c>
       <c r="B19" s="5">
         <f>[1]属性拆分生成!I45</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="C19" s="5">
         <f>[1]属性拆分生成!J45</f>
